--- a/Week 1-2.xlsx
+++ b/Week 1-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Cycles</t>
   </si>
   <si>
-    <t>Hat Tricks</t>
+    <t>Hat tricks</t>
   </si>
   <si>
     <t>Playmakers</t>
@@ -166,6 +166,9 @@
     <t>Drac.</t>
   </si>
   <si>
+    <t>MoldyPBJ</t>
+  </si>
+  <si>
     <t>VickyViksta</t>
   </si>
   <si>
@@ -197,6 +200,33 @@
   </si>
   <si>
     <t>YungChase69</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Goals + Assists</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-3</t>
   </si>
 </sst>
 </file>
@@ -241,6 +271,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:W34" totalsRowShown="0">
+  <autoFilter ref="B2:W34"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Tier"/>
+    <tableColumn id="3" name="Games Played"/>
+    <tableColumn id="4" name="Games Won"/>
+    <tableColumn id="5" name="Games Lost"/>
+    <tableColumn id="6" name="Win Percentage"/>
+    <tableColumn id="7" name="MVPs"/>
+    <tableColumn id="8" name="Points"/>
+    <tableColumn id="9" name="Goals"/>
+    <tableColumn id="10" name="Assists"/>
+    <tableColumn id="11" name="Saves"/>
+    <tableColumn id="12" name="Shots"/>
+    <tableColumn id="13" name="Shot Percentage"/>
+    <tableColumn id="14" name="Points per Game"/>
+    <tableColumn id="15" name="Goals per Game"/>
+    <tableColumn id="16" name="Assists per Game"/>
+    <tableColumn id="17" name="Saves per Game"/>
+    <tableColumn id="18" name="Shots per Game"/>
+    <tableColumn id="19" name="Cycles"/>
+    <tableColumn id="20" name="Hat tricks"/>
+    <tableColumn id="21" name="Playmakers"/>
+    <tableColumn id="22" name="Saviors"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B36:F44" totalsRowShown="0">
+  <autoFilter ref="B36:F44"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Tier"/>
+    <tableColumn id="2" name="Record"/>
+    <tableColumn id="3" name="Goals"/>
+    <tableColumn id="4" name="Assists"/>
+    <tableColumn id="5" name="Goals + Assists"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:W33"/>
+  <dimension ref="B2:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2130,58 +2205,58 @@
         <v>48</v>
       </c>
       <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2894</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>60</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1358</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
       <c r="L25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N25">
-        <v>271.6</v>
+        <v>361.75</v>
       </c>
       <c r="O25">
-        <v>0.4</v>
+        <v>1.12</v>
       </c>
       <c r="P25">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q25">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="S25">
-        <v>54.32</v>
+        <v>45.22</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2195,58 +2270,58 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1358</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
         <v>4</v>
-      </c>
-      <c r="G26">
-        <v>42.86</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>2105</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>12</v>
       </c>
       <c r="M26">
         <v>10</v>
       </c>
       <c r="N26">
-        <v>300.71</v>
+        <v>271.6</v>
       </c>
       <c r="O26">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="P26">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="Q26">
-        <v>1.71</v>
+        <v>0.8</v>
       </c>
       <c r="R26">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>42.96</v>
+        <v>54.32</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2255,15 +2330,15 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:23">
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2281,37 +2356,37 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1725</v>
+        <v>2105</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N27">
-        <v>246.43</v>
+        <v>300.71</v>
       </c>
       <c r="O27">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="P27">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="S27">
-        <v>35.2</v>
+        <v>42.96</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2323,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:23">
@@ -2331,7 +2406,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -2349,40 +2424,40 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2417</v>
+        <v>1725</v>
       </c>
       <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
         <v>7</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
       <c r="M28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>345.29</v>
+        <v>246.43</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="P28">
         <v>0.43</v>
       </c>
       <c r="Q28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="R28">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>49.33</v>
+        <v>35.2</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2399,58 +2474,58 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2417</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>345.29</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>49.33</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2467,64 +2542,64 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>417.5</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>69.58</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -2532,58 +2607,58 @@
     </row>
     <row r="31" spans="2:23">
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>40</v>
+        <v>66.67</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1974</v>
+        <v>2505</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>394.8</v>
+        <v>417.5</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="R31">
-        <v>2.8</v>
+        <v>3.17</v>
       </c>
       <c r="S31">
-        <v>78.95999999999999</v>
+        <v>69.58</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2592,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -2603,64 +2678,64 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1599</v>
+        <v>1974</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N32">
-        <v>266.5</v>
+        <v>394.8</v>
       </c>
       <c r="O32">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>1.17</v>
+        <v>0.2</v>
       </c>
       <c r="Q32">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="S32">
-        <v>44.42</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -2671,70 +2746,295 @@
         <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1599</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="M33">
+        <v>12</v>
+      </c>
+      <c r="N33">
+        <v>266.5</v>
+      </c>
+      <c r="O33">
+        <v>0.17</v>
+      </c>
+      <c r="P33">
+        <v>1.17</v>
+      </c>
+      <c r="Q33">
+        <v>0.67</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>44.42</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>75</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1215</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>7</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>303.75</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>1.5</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>1.75</v>
       </c>
-      <c r="S33">
+      <c r="S34">
         <v>75.94</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>